--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -353,7 +354,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D6:D7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,4 +378,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>